--- a/Data/Test/dataset7/input_data.xlsx
+++ b/Data/Test/dataset7/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e18d0fa5f3bb7c54/AISH2/AISH/Data/Test/dataset7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77EDAE-2D54-4A90-959A-76D42FF027E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{AA6FBF88-96F5-4024-BC38-2582DC338A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25DFA40F-58C6-4889-B9F7-85156CED7C18}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -245,24 +245,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -277,10 +265,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -561,663 +547,771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="8.875" style="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>25</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>90</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>90</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>-0.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>-0.1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>-0.1</v>
       </c>
-      <c r="E18" s="2">
-        <f>-0.1</f>
+      <c r="E18">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0.9</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>0.9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0.9</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>100</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>100</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>25</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>25</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1">
-        <v>60</v>
-      </c>
-      <c r="E24" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>150</v>
+      </c>
+      <c r="F24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>6000000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>6000000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>6000000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>9300</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>9300</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>9300</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>7.5</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>7.5</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>7.5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>4200</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>4200</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>4200</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>1100</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>1100</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>1100</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>11</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1232,7 +1326,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1256,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1.1000000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,13 +1434,13 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,7 +1566,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E16"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1499,16 +1593,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1516,16 +1610,16 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1853,10 +1947,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1871,7 +1968,7 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
